--- a/src/attributions/attributions_saliency_traj_83.xlsx
+++ b/src/attributions/attributions_saliency_traj_83.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006580847315490246</v>
+        <v>2.055726895378029e-07</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002454347908496857</v>
+        <v>1.497821267548716e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00165287684649229</v>
+        <v>4.106057986064116e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005705707240849733</v>
+        <v>1.292544766329229e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01768691092729568</v>
+        <v>1.482538436903269e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01201008446514606</v>
+        <v>6.429087079595774e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.012558339163661</v>
+        <v>3.886815648002084e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003701845649629831</v>
+        <v>2.06332833840861e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005609574727714062</v>
+        <v>1.391168439113244e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007974295876920223</v>
+        <v>4.585446731653064e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006228227168321609</v>
+        <v>1.588222949067131e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004628752358257771</v>
+        <v>1.086943484551739e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004672287497669458</v>
+        <v>1.35740774567239e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01815973594784737</v>
+        <v>2.963883844131487e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01006512995809317</v>
+        <v>1.011899985314813e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>0.003130749799311161</v>
+        <v>2.4522209969291e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008028029697015882</v>
+        <v>5.108278401166899e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0008425930864177644</v>
+        <v>5.808940386486938e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004255461040884256</v>
+        <v>2.019680778175825e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0003888377104885876</v>
+        <v>4.225659722578712e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002482018200680614</v>
+        <v>2.016910002566874e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005026532337069511</v>
+        <v>1.375267856928986e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001693482277914882</v>
+        <v>4.733199602924287e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00145057134795934</v>
+        <v>2.736995611485327e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00230018887668848</v>
+        <v>4.725129656435456e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001628296915441751</v>
+        <v>1.91368417290505e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.006510490085929632</v>
+        <v>1.892778186629585e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.001994292018935084</v>
+        <v>7.151719728426542e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001189586240798235</v>
+        <v>3.561140431429521e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.002321285894140601</v>
+        <v>1.609477294550743e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.00576770817860961</v>
+        <v>4.054021701449528e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.001447909162379801</v>
+        <v>5.107952802063664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.004331612028181553</v>
+        <v>2.042376763711218e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.002278923755511642</v>
+        <v>6.30601334705716e-07</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.001049913582392037</v>
+        <v>8.325200155923085e-07</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.004091504029929638</v>
+        <v>3.116919970125309e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001463728141970932</v>
+        <v>3.027505727004609e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0009335295180790126</v>
+        <v>7.169658601924311e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.005028733517974615</v>
+        <v>1.164288050858886e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001519704237580299</v>
+        <v>4.84859810967464e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.001876206253655255</v>
+        <v>7.236487817863235e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.002562663750723004</v>
+        <v>2.463952171183337e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001435293233953416</v>
+        <v>3.773708385779173e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.002863435074687004</v>
+        <v>1.639219249227608e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0003113574639428407</v>
+        <v>9.967619689632556e-07</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.000379673670977354</v>
+        <v>4.341798558016308e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.002884716959670186</v>
+        <v>3.428516265557846e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.003392236074432731</v>
+        <v>5.507138212124119e-08</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00358458049595356</v>
+        <v>4.541603630059399e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008971309289336205</v>
+        <v>7.725677278358489e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.003020126838237047</v>
+        <v>6.634530222981994e-07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.003827178850769997</v>
+        <v>4.750691914523486e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.001275931368581951</v>
+        <v>1.825248887143971e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.005000718869268894</v>
+        <v>9.350912932859501e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.00350580271333456</v>
+        <v>3.482692250145192e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.002702013589441776</v>
+        <v>1.095726111088879e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.001105470350012183</v>
+        <v>1.750473529682495e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.001600252347998321</v>
+        <v>6.761524673493113e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.003221928142011166</v>
+        <v>1.392564740854141e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00332718831487</v>
+        <v>8.659665127197513e-07</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.007522205822169781</v>
+        <v>1.362502075608063e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.001798163866624236</v>
+        <v>9.588906095814309e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002598832128569484</v>
+        <v>3.371091906956281e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0003727462026290596</v>
+        <v>7.316690243897028e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002030280651524663</v>
+        <v>8.752997928240802e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0002562480221968144</v>
+        <v>1.844082021307258e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.002069804817438126</v>
+        <v>3.099869218203821e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.001251895329914987</v>
+        <v>2.461940766806947e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.004338566213846207</v>
+        <v>9.64128048508428e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.006137694232165813</v>
+        <v>5.644833436235785e-07</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.002731098094955087</v>
+        <v>1.499257678005961e-07</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0005768652190454304</v>
+        <v>1.948806811924442e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.002505921525880694</v>
+        <v>4.042138698423514e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.002431125845760107</v>
+        <v>2.680922307263245e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0008489730535075068</v>
+        <v>4.71225575893186e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.004532980732619762</v>
+        <v>1.621771048121445e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.008816195651888847</v>
+        <v>5.355992016120581e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.004669212270528078</v>
+        <v>2.717900997595279e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0001226621679961681</v>
+        <v>4.244430783728603e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.004117757547646761</v>
+        <v>5.593310561380349e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001572287059389055</v>
+        <v>3.03219258057652e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.001497017568908632</v>
+        <v>3.208181851732661e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.002112879185006022</v>
+        <v>2.942622643331561e-07</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0004008077085018158</v>
+        <v>6.919680686223728e-07</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0007602231344208121</v>
+        <v>4.184933914075373e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.002662420505657792</v>
+        <v>2.557798097768682e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.003219870384782553</v>
+        <v>7.340219099205569e-07</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.001801198348402977</v>
+        <v>4.076101731698145e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001837367191910744</v>
+        <v>1.065903234120924e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.000231780344620347</v>
+        <v>3.207886152267747e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0001125493508880027</v>
+        <v>2.316873178642709e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00155894982162863</v>
+        <v>5.416384283307707e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.001202948158606887</v>
+        <v>1.591911086507025e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00249818991869688</v>
+        <v>3.936450866603991e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.002816041465848684</v>
+        <v>3.326214823573537e-07</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.002217717934399843</v>
+        <v>4.572078069031704e-06</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.005085503682494164</v>
+        <v>6.542798018926987e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.002234193962067366</v>
+        <v>6.367437435983447e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.001961495261639357</v>
+        <v>7.16824706614716e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0006712514441460371</v>
+        <v>3.154159003315726e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.002455932553857565</v>
+        <v>8.006355756151606e-07</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0007566676940768957</v>
+        <v>6.083071752982505e-07</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.837395656271838e-05</v>
+        <v>2.85050646198215e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002346841851249337</v>
+        <v>9.040613804245368e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.003273299662396312</v>
+        <v>2.052836180155282e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.001280802767723799</v>
+        <v>2.803642473736545e-07</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001826520776376128</v>
+        <v>1.62117555646546e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.002114254981279373</v>
+        <v>3.947154993966251e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.005047688260674477</v>
+        <v>1.675614385021618e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0007998948567546904</v>
+        <v>9.748262527864426e-06</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.000637874414678663</v>
+        <v>3.142667992506176e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.005795881152153015</v>
+        <v>3.558825937943766e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0009417756227776408</v>
+        <v>2.11526116800087e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002375310752540827</v>
+        <v>6.806977125961566e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00621178699657321</v>
+        <v>9.398782822245266e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.003896432463079691</v>
+        <v>1.382921254844405e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.002075115917250514</v>
+        <v>7.158431344578275e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.001049854094162583</v>
+        <v>3.869455667881994e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0003042645112145692</v>
+        <v>2.956134721898707e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.001762679079547524</v>
+        <v>8.010476449271664e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00243078451603651</v>
+        <v>7.202733740996337e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001510557252913713</v>
+        <v>2.680332045201794e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.048956205020659e-05</v>
+        <v>3.203614085123263e-08</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.002764944452792406</v>
+        <v>9.485962664257386e-07</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.003725643968209624</v>
+        <v>1.258311840501847e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00268308911472559</v>
+        <v>1.467611809857772e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001726187532767653</v>
+        <v>7.211657248262782e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.002497699344530702</v>
+        <v>2.369937874391326e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00145044713281095</v>
+        <v>3.046949814233813e-06</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.002137244679033756</v>
+        <v>2.470600520609878e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.004604469519108534</v>
+        <v>6.382758783729514e-07</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0001862085773609579</v>
+        <v>5.113337920192862e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001302900491282344</v>
+        <v>1.172140741800831e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001445290981791914</v>
+        <v>2.768649665085832e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.004267055541276932</v>
+        <v>8.827050237414369e-07</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.004987448919564486</v>
+        <v>3.141248043903033e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.718510429782327e-05</v>
+        <v>1.242074176843744e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0004794052802026272</v>
+        <v>7.677658118154795e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001890083542093635</v>
+        <v>7.53190579416696e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.004243343602865934</v>
+        <v>1.258206566490117e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.005307432729750872</v>
+        <v>2.33203763855272e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0007280345889739692</v>
+        <v>5.103941020934144e-07</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.001094767125323415</v>
+        <v>2.566808689152822e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001372069120407104</v>
+        <v>3.103066887888417e-07</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0002749601262621582</v>
+        <v>5.607028015219839e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.003549630753695965</v>
+        <v>1.727313019728172e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0003888537466991693</v>
+        <v>5.221010269451654e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.004241856746375561</v>
+        <v>7.28020722817746e-07</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001160915126092732</v>
+        <v>1.890717840069556e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.004996550735086203</v>
+        <v>3.022542387043359e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.004153441172093153</v>
+        <v>1.890856992758927e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.003570629516616464</v>
+        <v>2.405248324066633e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00286194821819663</v>
+        <v>1.198633725607579e-07</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0005144148599356413</v>
+        <v>4.151949724473525e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.001837320625782013</v>
+        <v>7.035915245978686e-07</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0004156252543907613</v>
+        <v>3.288046741545259e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0004602468106895685</v>
+        <v>3.815157469944097e-06</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.002471196465194225</v>
+        <v>2.053349135167082e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.003248117631301284</v>
+        <v>8.906915240913804e-07</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.001188635709695518</v>
+        <v>1.87288605957292e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.002219639718532562</v>
+        <v>6.783445769542595e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.001097369473427534</v>
+        <v>4.627851240002201e-07</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.004911549389362335</v>
+        <v>2.171806272599497e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0005958164110779762</v>
+        <v>5.264115770842182e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.001108358497731388</v>
+        <v>8.416179184678185e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.002753759035840631</v>
+        <v>3.433837264310569e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.001552611705847085</v>
+        <v>8.359752428077627e-07</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0005862110410816967</v>
+        <v>3.58756051355158e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.001067977980710566</v>
+        <v>2.206753151767771e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.004003629554063082</v>
+        <v>4.7910327793943e-07</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.003149388590827584</v>
+        <v>4.09509766541305e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.002490338170900941</v>
+        <v>7.852395356167108e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001985551323741674</v>
+        <v>6.926562491571531e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.001957523636519909</v>
+        <v>2.129381527993246e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.008333593606948853</v>
+        <v>9.461054446546768e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.001989064272493124</v>
+        <v>1.384051756758709e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0009872607188299298</v>
+        <v>3.563448217391851e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.002871926641091704</v>
+        <v>1.168573271570494e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.003142026951536536</v>
+        <v>5.980455171084031e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.005086068529635668</v>
+        <v>3.567659405234735e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003714812453836203</v>
+        <v>9.152076017926447e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001680910587310791</v>
+        <v>2.913708840424079e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.003329149447381496</v>
+        <v>8.948064532887656e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.002978173084557056</v>
+        <v>5.098399924463592e-08</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.005282378289848566</v>
+        <v>4.873204488831107e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.005352883599698544</v>
+        <v>5.256324129732093e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.979607623070478e-05</v>
+        <v>2.533623955969233e-06</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00141085684299469</v>
+        <v>1.92257948583574e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.002490699756890535</v>
+        <v>2.199493110310868e-06</v>
       </c>
     </row>
     <row r="3">
